--- a/rhla_analysis/rhla1_3_normal_result/k3.xlsx
+++ b/rhla_analysis/rhla1_3_normal_result/k3.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.01269560118736178</v>
+        <v>0.01269560118736183</v>
       </c>
       <c r="B2" t="n">
         <v>0.2912133118283829</v>
@@ -466,12 +466,12 @@
         <v>0.07502131287297528</v>
       </c>
       <c r="D2" t="n">
-        <v>22.93812695678249</v>
+        <v>22.93812695678239</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.01250599949541217</v>
+        <v>0.01250599949541223</v>
       </c>
       <c r="B3" t="n">
         <v>0.2714790025875785</v>
@@ -480,12 +480,12 @@
         <v>0.07885763000852515</v>
       </c>
       <c r="D3" t="n">
-        <v>21.70790129067019</v>
+        <v>21.70790129067008</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.007562050495701608</v>
+        <v>0.007562050495701611</v>
       </c>
       <c r="B4" t="n">
         <v>0.2666332723913615</v>
@@ -494,12 +494,12 @@
         <v>0.08013640238704177</v>
       </c>
       <c r="D4" t="n">
-        <v>35.25938798516621</v>
+        <v>35.2593879851662</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.009779780784726699</v>
+        <v>0.009779780784726655</v>
       </c>
       <c r="B5" t="n">
         <v>0.2221965313584948</v>
@@ -508,12 +508,12 @@
         <v>0.1040068201193521</v>
       </c>
       <c r="D5" t="n">
-        <v>22.71999099463498</v>
+        <v>22.71999099463508</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.009907861283120748</v>
+        <v>0.009907861283120687</v>
       </c>
       <c r="B6" t="n">
         <v>0.2483976966968258</v>
@@ -522,12 +522,12 @@
         <v>0.08994032395566923</v>
       </c>
       <c r="D6" t="n">
-        <v>25.07076851388721</v>
+        <v>25.07076851388737</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.009178654179699678</v>
+        <v>0.009178654179699609</v>
       </c>
       <c r="B7" t="n">
         <v>0.2765576255794719</v>
@@ -536,12 +536,12 @@
         <v>0.09335038363171355</v>
       </c>
       <c r="D7" t="n">
-        <v>30.13052024458348</v>
+        <v>30.13052024458371</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.02642250192587144</v>
+        <v>0.02642250192587145</v>
       </c>
       <c r="B8" t="n">
         <v>0.253978409581741</v>
@@ -550,12 +550,12 @@
         <v>0.08567774936061381</v>
       </c>
       <c r="D8" t="n">
-        <v>9.612201384043027</v>
+        <v>9.612201384043026</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.01908248704525031</v>
+        <v>0.01908248704525041</v>
       </c>
       <c r="B9" t="n">
         <v>0.2344471401364038</v>
@@ -564,7 +564,7 @@
         <v>0.1005967604433078</v>
       </c>
       <c r="D9" t="n">
-        <v>12.28598450403552</v>
+        <v>12.28598450403545</v>
       </c>
     </row>
     <row r="10">
@@ -583,7 +583,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.02124866713888927</v>
+        <v>0.02124866713888925</v>
       </c>
       <c r="B11" t="n">
         <v>0.2777617427279783</v>
@@ -592,7 +592,7 @@
         <v>0.07971014492753623</v>
       </c>
       <c r="D11" t="n">
-        <v>13.07196074522808</v>
+        <v>13.07196074522809</v>
       </c>
     </row>
   </sheetData>
